--- a/mapping_coordinate.xlsx
+++ b/mapping_coordinate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McGinley3\Documents\GitHub\lsfm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A678435-DAB3-437E-A9B5-3418CB8054A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECF5C9-4826-4C17-A46D-57C12658334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{3E4D25A9-BA23-4DD6-A79A-FDDDCBC8BD23}"/>
   </bookViews>
@@ -209,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,11 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,8 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,9 +576,9 @@
       <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2455,7 +2463,7 @@
       <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -5130,15 +5138,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5093572-C8E8-4F4C-B094-5129C6FDD4FC}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5148,10 +5156,10 @@
       <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
@@ -5462,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>0.47899999999999998</v>
+        <v>0.377</v>
       </c>
       <c r="D21">
-        <v>0.188</v>
+        <v>-0.14799999999999999</v>
       </c>
       <c r="E21">
         <v>0.19001381425023761</v>
@@ -5907,10 +5915,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>0.64200000000000002</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="D50">
-        <v>0.28999999999999998</v>
+        <v>-0.248</v>
       </c>
       <c r="E50">
         <v>0.219112134268693</v>
@@ -6211,10 +6219,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>1.3740000000000001</v>
+        <v>0.503</v>
       </c>
       <c r="D70">
-        <v>0.91700000000000004</v>
+        <v>-0.33600000000000002</v>
       </c>
       <c r="E70">
         <v>0.117326663238113</v>
@@ -6287,10 +6295,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>0.437</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="D75">
-        <v>0.23300000000000001</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="E75">
         <v>0.12469842251778571</v>
@@ -6363,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>0.72699999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="D80">
-        <v>0.30399999999999999</v>
+        <v>-0.26</v>
       </c>
       <c r="E80">
         <v>0.25959944751381242</v>
@@ -6518,10 +6526,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>1.377</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="D90">
-        <v>0.95099999999999996</v>
+        <v>-0.46100000000000002</v>
       </c>
       <c r="E90">
         <v>0.23109243697478979</v>

--- a/mapping_coordinate.xlsx
+++ b/mapping_coordinate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McGinley3\Documents\GitHub\lsfm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECF5C9-4826-4C17-A46D-57C12658334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF3EAF-FBCA-422B-9BCB-36DDE85C3958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{3E4D25A9-BA23-4DD6-A79A-FDDDCBC8BD23}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="67">
   <si>
     <t>TP110</t>
   </si>
@@ -202,7 +202,43 @@
     <t>TP041</t>
   </si>
   <si>
-    <t>orthogonal</t>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>x_4p</t>
+  </si>
+  <si>
+    <t>y_4p</t>
+  </si>
+  <si>
+    <t>A1_l</t>
+  </si>
+  <si>
+    <t>x_3p</t>
+  </si>
+  <si>
+    <t>y_3p</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>x_A12</t>
+  </si>
+  <si>
+    <t>y_A12</t>
+  </si>
+  <si>
+    <t>ortho_A12</t>
+  </si>
+  <si>
+    <t>ortho_A12m</t>
+  </si>
+  <si>
+    <t>ortho_A1AAF</t>
+  </si>
+  <si>
+    <t>ortho_A2UF</t>
   </si>
 </sst>
 </file>
@@ -251,11 +287,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -274,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2459,7 +2496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310811C6-7E0C-4797-A8C6-223416038DED}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
@@ -5136,20 +5173,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5093572-C8E8-4F4C-B094-5129C6FDD4FC}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -5157,407 +5197,924 @@
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2">
+        <v>-0.58299999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-0.499999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F3">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="I3">
+        <v>-0.158877904737449</v>
+      </c>
+      <c r="J3">
+        <v>1.0228955364402701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>1.0269999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F4">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-0.59899999999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.40200000000000002</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="D5">
-        <v>0.59899999999999998</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="E5">
-        <v>0.57102850824102103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.53817349253220303</v>
+      </c>
+      <c r="J5">
+        <v>1.0499422262164499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.186</v>
+      </c>
+      <c r="G6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.28298455086232699</v>
+      </c>
+      <c r="J6">
+        <v>0.41152052039200498</v>
+      </c>
+      <c r="K6">
+        <v>-1.2241107337563201E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.21777084420366399</v>
+      </c>
+      <c r="M6">
+        <v>0.28298455086232699</v>
+      </c>
+      <c r="N6">
+        <v>0.41152052039200498</v>
+      </c>
+      <c r="O6">
+        <v>77.463889153239194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>0.99</v>
-      </c>
-      <c r="D6">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.56561083012176605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.038</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.222</v>
+      </c>
+      <c r="E7">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F7">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="G7">
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I7">
+        <v>-0.38565070398425</v>
+      </c>
+      <c r="J7">
+        <v>1.0614113921342001</v>
+      </c>
+      <c r="K7">
+        <v>-1.76587854568175E-2</v>
+      </c>
+      <c r="L7">
+        <v>-0.52884700123861805</v>
+      </c>
+      <c r="M7">
+        <v>-0.38565070398425</v>
+      </c>
+      <c r="N7">
+        <v>1.0614113921342001</v>
+      </c>
+      <c r="O7">
+        <v>77.463889153239194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1.3149999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G8">
+        <v>-0.59899999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-0.499999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2.59254454586707E-17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>1.2150000000000001</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.59499999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.59</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="I9">
+        <v>-0.17652167191766799</v>
+      </c>
+      <c r="J9">
+        <v>0.68797886048022905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1.0109999999999999</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.0049999999999999</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="E10">
-        <v>1.0628101512133099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F10">
+        <v>-0.22</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>-0.72799999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7.7776336376012306E-17</v>
+      </c>
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.34652342781767398</v>
+      </c>
+      <c r="J11">
+        <v>0.83601391822318105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.004</v>
+      </c>
+      <c r="E12">
+        <v>1.0629999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H12">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="I12">
+        <v>0.59044685107203598</v>
+      </c>
+      <c r="J12">
+        <v>0.69537296701340101</v>
+      </c>
+      <c r="K12">
+        <v>0.46351068559533798</v>
+      </c>
+      <c r="L12">
+        <v>0.28011746035595098</v>
+      </c>
+      <c r="M12">
+        <v>0.59044685107203598</v>
+      </c>
+      <c r="N12">
+        <v>0.69537296701340101</v>
+      </c>
+      <c r="O12">
+        <v>89.876798351347105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>0.214</v>
-      </c>
-      <c r="D11">
+      <c r="C13">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D13">
         <v>0.68400000000000005</v>
       </c>
-      <c r="E11">
-        <v>0.43883822329192701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13">
+        <v>0.439</v>
+      </c>
+      <c r="F13">
+        <v>0.26</v>
+      </c>
+      <c r="G13">
+        <v>-0.16</v>
+      </c>
+      <c r="H13">
+        <v>-0.32100000000000001</v>
+      </c>
+      <c r="I13">
+        <v>8.9063495095572306E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.14656305385690899</v>
+      </c>
+      <c r="K13">
+        <v>-0.160461242326044</v>
+      </c>
+      <c r="L13">
+        <v>0.32133449289398303</v>
+      </c>
+      <c r="M13">
+        <v>8.9063495095572306E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.14656305385690899</v>
+      </c>
+      <c r="O13">
+        <v>89.876798351347105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="D14">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>-0.61899999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-0.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6.0119877675282195E-17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>0.13800000000000001</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0.80200000000000005</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.56430527646963013</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="I15">
+        <v>6.5641025641025696E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.918461538461538</v>
+      </c>
+      <c r="P15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="F16">
+        <v>-0.28299999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>-0.58599999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3.0059938837641097E-17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D17">
+        <v>0.62</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.70358974358974302</v>
+      </c>
+      <c r="J17">
+        <v>0.86871794871794805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E18">
+        <v>0.621</v>
+      </c>
+      <c r="F18">
+        <v>0.308</v>
+      </c>
+      <c r="G18">
+        <v>1E-3</v>
+      </c>
+      <c r="H18">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.44307692307692298</v>
+      </c>
+      <c r="J18">
+        <v>0.124615384615384</v>
+      </c>
+      <c r="K18">
+        <v>-5.5110699459263501E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.45103602326074999</v>
+      </c>
+      <c r="M18">
+        <v>0.44307692307692298</v>
+      </c>
+      <c r="N18">
+        <v>0.124615384615384</v>
+      </c>
+      <c r="O18">
+        <v>79.489696589581797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>0.245</v>
-      </c>
-      <c r="D16">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.15422870132590619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
       <c r="C19">
-        <v>0.96699999999999997</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D19">
-        <v>0.63900000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F19">
+        <v>-0.109</v>
+      </c>
+      <c r="G19">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.159</v>
+      </c>
+      <c r="I19">
+        <v>-0.40717948717948699</v>
+      </c>
+      <c r="J19">
+        <v>0.26256410256410201</v>
+      </c>
+      <c r="K19">
+        <v>-0.46518727460298698</v>
+      </c>
+      <c r="L19">
+        <v>-2.9489264057502299E-2</v>
+      </c>
+      <c r="M19">
+        <v>-0.40717948717948699</v>
+      </c>
+      <c r="N19">
+        <v>0.26256410256410201</v>
+      </c>
+      <c r="O19">
+        <v>79.489696589581797</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>0.35</v>
-      </c>
-      <c r="D20">
-        <v>0.503</v>
-      </c>
-      <c r="E20">
-        <v>0.49803965408478601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>-0.54300000000000004</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>-0.499999999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7.2166840196693394E-17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I21">
+        <v>-0.356205540582335</v>
+      </c>
+      <c r="J21">
+        <v>1.3622807405116399</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.73</v>
+      </c>
+      <c r="E22">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F22">
+        <v>-0.46</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="I22">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7.2166840196693394E-17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0.51416073874431101</v>
+      </c>
+      <c r="J23">
+        <v>1.3183625679317801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0.35</v>
+      </c>
+      <c r="D24">
+        <v>0.503</v>
+      </c>
+      <c r="E24">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F24">
+        <v>-0.188</v>
+      </c>
+      <c r="G24">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H24">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.238987319400875</v>
+      </c>
+      <c r="J24">
+        <v>0.47667123227146102</v>
+      </c>
+      <c r="K24">
+        <v>-4.4623633311591998E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.188020838995651</v>
+      </c>
+      <c r="M24">
+        <v>0.238987319400875</v>
+      </c>
+      <c r="N24">
+        <v>0.47667123227146102</v>
+      </c>
+      <c r="O24">
+        <v>69.719292580717195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>0.377</v>
       </c>
-      <c r="D21">
-        <v>-0.14799999999999999</v>
-      </c>
-      <c r="E21">
-        <v>0.19001381425023761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0.83599999999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>1.2829999999999999</v>
-      </c>
-      <c r="D24">
-        <v>0.72099999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>0.48</v>
-      </c>
       <c r="D25">
-        <v>1.103</v>
+        <v>-0.14899999999999999</v>
       </c>
       <c r="E25">
-        <v>0.70913434024235511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F25">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="G25">
+        <v>-0.44900000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="I25">
+        <v>-0.64951619316926501</v>
+      </c>
+      <c r="J25">
+        <v>0.51376308929439196</v>
+      </c>
+      <c r="K25">
+        <v>-0.35264947314613998</v>
+      </c>
+      <c r="L25">
+        <v>-0.12534474992481101</v>
+      </c>
+      <c r="M25">
+        <v>-0.64951619316926501</v>
+      </c>
+      <c r="N25">
+        <v>0.51376308929439196</v>
+      </c>
+      <c r="O25">
+        <v>69.719292580717195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="D26">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="E26">
-        <v>0.31467316927517508</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G26">
+        <v>-0.46600000000000003</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>-0.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>-3.35270654397224E-17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -5568,13 +6125,28 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F27">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I27">
+        <v>-0.16913335367714399</v>
+      </c>
+      <c r="J27">
+        <v>1.1490692706743899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -5583,426 +6155,972 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0.77100000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="E28">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="F28">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J28" s="2">
+        <v>-6.70541308794448E-17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29">
-        <v>0.81799999999999995</v>
+        <v>1.284</v>
       </c>
       <c r="D29">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0.78730546231308995</v>
+      </c>
+      <c r="J29">
+        <v>1.47490082392432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30">
-        <v>8.3000000000000004E-2</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="D30">
-        <v>0.75700000000000001</v>
+        <v>1.103</v>
       </c>
       <c r="E30">
-        <v>0.54483032381209762</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.373</v>
+      </c>
+      <c r="H30">
+        <v>-0.59599999999999997</v>
+      </c>
+      <c r="I30">
+        <v>0.97810497406164099</v>
+      </c>
+      <c r="J30">
+        <v>0.55256332010985698</v>
+      </c>
+      <c r="K30">
+        <v>0.243190007937613</v>
+      </c>
+      <c r="L30">
+        <v>0.419900798709756</v>
+      </c>
+      <c r="M30">
+        <v>0.97810497406164099</v>
+      </c>
+      <c r="N30">
+        <v>0.55256332010985698</v>
+      </c>
+      <c r="O30">
+        <v>71.328092885731095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E31">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F31">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G31">
+        <v>-0.109</v>
+      </c>
+      <c r="H31">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="I31">
+        <v>9.1394568202624302E-2</v>
+      </c>
+      <c r="J31">
+        <v>0.301495270064083</v>
+      </c>
+      <c r="K31">
+        <v>-0.151271163029566</v>
+      </c>
+      <c r="L31">
+        <v>0.247493700926465</v>
+      </c>
+      <c r="M31">
+        <v>9.1394568202624302E-2</v>
+      </c>
+      <c r="N31">
+        <v>0.301495270064083</v>
+      </c>
+      <c r="O31">
+        <v>71.328092885731095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32">
+        <v>-0.60899999999999999</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>-0.499999999999999</v>
+      </c>
+      <c r="J32" s="2">
+        <v>-1.03142789271927E-16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.437</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.502</v>
+      </c>
+      <c r="I33">
+        <v>-7.6534296028881496E-2</v>
+      </c>
+      <c r="J33">
+        <v>1.2253910950661799</v>
+      </c>
+      <c r="P33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E34">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F34">
+        <v>-0.441</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>-0.498</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="2">
+        <v>-1.3752371902923599E-16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.67051744885679798</v>
+      </c>
+      <c r="J35">
+        <v>1.0022864019253901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F36">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="G36">
+        <v>0.04</v>
+      </c>
+      <c r="H36">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.51660649819494497</v>
+      </c>
+      <c r="J36">
+        <v>0.103610108303248</v>
+      </c>
+      <c r="K36">
+        <v>-6.4152213465631103E-2</v>
+      </c>
+      <c r="L36">
+        <v>0.434098425269488</v>
+      </c>
+      <c r="M36">
+        <v>0.51660649819494497</v>
+      </c>
+      <c r="N36">
+        <v>0.103610108303248</v>
+      </c>
+      <c r="O36">
+        <v>74.623854937796196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="D31">
+      <c r="D37">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E31">
-        <v>8.8013715984526814E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="E37">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F37">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="H37">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I37">
+        <v>-0.41119133574007199</v>
+      </c>
+      <c r="J37">
+        <v>0.104813477737664</v>
+      </c>
+      <c r="K37">
+        <v>-0.52096882129320199</v>
+      </c>
+      <c r="L37">
+        <v>0.14162888173369401</v>
+      </c>
+      <c r="M37">
+        <v>-0.41119133574007199</v>
+      </c>
+      <c r="N37">
+        <v>0.104813477737664</v>
+      </c>
+      <c r="O37">
+        <v>74.623854937796196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38">
+        <v>-0.55400000000000005</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>-0.5</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C32">
+      <c r="C39">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="I39">
+        <v>-5.40496003954846E-2</v>
+      </c>
+      <c r="J39">
+        <v>1.16952294636236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>8</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>0.79900000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="E40">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F40">
+        <v>-0.36499999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>-0.52300000000000002</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="D34">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="C41">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D41">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0.78186537035511205</v>
+      </c>
+      <c r="J41">
+        <v>1.1029908544121201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B42" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D35">
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="E35">
-        <v>0.48893658705234971</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="C42">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E42">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F42">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G42">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H42">
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="I42">
+        <v>0.50716816346708404</v>
+      </c>
+      <c r="J42">
+        <v>9.7182170223283806E-2</v>
+      </c>
+      <c r="K42">
+        <v>-6.5265462728030896E-2</v>
+      </c>
+      <c r="L42">
+        <v>0.45718115382774399</v>
+      </c>
+      <c r="M42">
+        <v>0.50716816346708404</v>
+      </c>
+      <c r="N42">
+        <v>9.7182170223283806E-2</v>
+      </c>
+      <c r="O42">
+        <v>74.638177970553798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C43">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="D36">
+      <c r="D43">
         <v>5.5E-2</v>
       </c>
-      <c r="E36">
-        <v>4.4570572473998177E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="E43">
+        <v>0.05</v>
+      </c>
+      <c r="F43">
+        <v>0.02</v>
+      </c>
+      <c r="G43">
+        <v>-0.504</v>
+      </c>
+      <c r="H43">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="I43">
+        <v>-0.42147977259619301</v>
+      </c>
+      <c r="J43">
+        <v>2.4305841641262298E-2</v>
+      </c>
+      <c r="K43">
+        <v>-0.50963147730638203</v>
+      </c>
+      <c r="L43">
+        <v>0.20085320755071601</v>
+      </c>
+      <c r="M43">
+        <v>-0.42147977259619301</v>
+      </c>
+      <c r="N43">
+        <v>2.4305841641262298E-2</v>
+      </c>
+      <c r="O43">
+        <v>74.638177970553798</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>-0.5</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2.9101205178936801E-17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
         <v>42</v>
       </c>
-      <c r="C37">
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="F45">
+        <v>0.498</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="I45">
+        <v>-0.42181684939577302</v>
+      </c>
+      <c r="J45">
+        <v>1.0154469558719901</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
         <v>0.98199999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="E46">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="F46">
+        <v>-0.48799999999999999</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>-0.50600000000000001</v>
+      </c>
+      <c r="I46">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="2">
+        <v>-2.9101205178936801E-17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
         <v>17</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="D39">
+      <c r="C47">
+        <v>0.95</v>
+      </c>
+      <c r="D47">
         <v>0.91200000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.50281637521014899</v>
+      </c>
+      <c r="J47">
+        <v>0.96434986277355506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C48">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D40">
+      <c r="D48">
         <v>0.318</v>
       </c>
-      <c r="E40">
-        <v>0.24022864778590219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="E48">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F48">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="G48">
+        <v>-0.28899999999999998</v>
+      </c>
+      <c r="H48">
+        <v>-9.8000000000000004E-2</v>
+      </c>
+      <c r="I48">
+        <v>-0.16559855157846301</v>
+      </c>
+      <c r="J48">
+        <v>0.13443880850085399</v>
+      </c>
+      <c r="K48">
+        <v>-0.29218252661062499</v>
+      </c>
+      <c r="L48">
+        <v>0.10683046878053699</v>
+      </c>
+      <c r="M48">
+        <v>-0.16559855157846301</v>
+      </c>
+      <c r="N48">
+        <v>0.13443880850085399</v>
+      </c>
+      <c r="O48">
+        <v>88.353219375639895</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>-0.499999999999999</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1.32322185825147E-16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
         <v>42</v>
       </c>
-      <c r="C41">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F50">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I50">
+        <v>-0.353185286963625</v>
+      </c>
+      <c r="J50">
+        <v>1.2887089886180001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" t="s">
         <v>16</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
         <v>0.77100000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="E51">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="F51">
+        <v>-0.68700000000000006</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1.32322185825147E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
+      <c r="C52">
         <v>0.60799999999999998</v>
       </c>
-      <c r="D43">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="D52">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.436</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.75426592643481805</v>
+      </c>
+      <c r="J52">
+        <v>0.78355645505690996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
+      <c r="C53">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D44">
+      <c r="D53">
         <v>0.64</v>
       </c>
-      <c r="E44">
-        <v>0.75703140254514301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="E53">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="F53">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+      <c r="G53">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="H53">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="I53">
+        <v>0.406307443786323</v>
+      </c>
+      <c r="J53">
+        <v>0.66234658447369898</v>
+      </c>
+      <c r="K53">
+        <v>0.193020935935901</v>
+      </c>
+      <c r="L53">
+        <v>-4.78750856327343E-2</v>
+      </c>
+      <c r="M53">
+        <v>0.406307443786323</v>
+      </c>
+      <c r="N53">
+        <v>0.66234658447369898</v>
+      </c>
+      <c r="O53">
+        <v>88.487152341787905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B54" t="s">
         <v>11</v>
       </c>
-      <c r="C45">
+      <c r="C54">
         <v>0.27900000000000003</v>
       </c>
-      <c r="D45">
+      <c r="D54">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E45">
-        <v>0.22951278938476821</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="E54">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F54">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="G54">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="H54">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I54">
+        <v>-0.32462818203761801</v>
+      </c>
+      <c r="J54">
+        <v>0.35991607404794201</v>
+      </c>
+      <c r="K54">
+        <v>-0.33449767722447299</v>
+      </c>
+      <c r="L54">
+        <v>-0.14578566333312601</v>
+      </c>
+      <c r="M54">
+        <v>-0.32462818203761801</v>
+      </c>
+      <c r="N54">
+        <v>0.35991607404794201</v>
+      </c>
+      <c r="O54">
+        <v>88.487152341787905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" t="s">
         <v>15</v>
       </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55">
+        <v>-0.54400000000000004</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>-0.499999999999999</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1.3044526558073901E-16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" t="s">
         <v>15</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0.98799999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="D48">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="D49">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="E49">
-        <v>0.6455614490814916</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="D50">
-        <v>-0.248</v>
-      </c>
-      <c r="E50">
-        <v>0.219112134268693</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="D53">
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="D54">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="E54">
-        <v>0.72403480152256661</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55">
-        <v>0.52</v>
-      </c>
-      <c r="D55">
-        <v>0.05</v>
-      </c>
-      <c r="E55">
-        <v>0.28099510603588901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>13</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
@@ -6013,10 +7131,31 @@
       <c r="D56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F56">
+        <v>0.495</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="I56">
+        <v>-0.19551409289400501</v>
+      </c>
+      <c r="J56">
+        <v>0.96546248511314003</v>
+      </c>
+      <c r="P56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -6025,443 +7164,1016 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F57">
+        <v>-0.28599999999999998</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="I57">
+        <v>0.5</v>
+      </c>
+      <c r="J57" s="2">
+        <v>2.2827921476629298E-16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58">
-        <v>1.2929999999999999</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="D58">
-        <v>1.038</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.52858277094084904</v>
+      </c>
+      <c r="J58">
+        <v>1.1234616911472799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59">
-        <v>0.83</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D59">
-        <v>1.3280000000000001</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E59">
-        <v>0.89912537946414173</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="F59">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H59">
+        <v>-0.106</v>
+      </c>
+      <c r="I59">
+        <v>0.255260023818975</v>
+      </c>
+      <c r="J59">
+        <v>0.64172290591504599</v>
+      </c>
+      <c r="K59">
+        <v>0.10146772958913799</v>
+      </c>
+      <c r="L59">
+        <v>7.5325421539705895E-2</v>
+      </c>
+      <c r="M59">
+        <v>0.255260023818975</v>
+      </c>
+      <c r="N59">
+        <v>0.64172290591504599</v>
+      </c>
+      <c r="O59">
+        <v>78.244369087016196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D60">
+        <v>-0.248</v>
+      </c>
+      <c r="E60">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F60">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="G60">
+        <v>-0.38200000000000001</v>
+      </c>
+      <c r="H60">
+        <v>0.36</v>
+      </c>
+      <c r="I60">
+        <v>-0.58396188963874496</v>
+      </c>
+      <c r="J60">
+        <v>0.52937673680031705</v>
+      </c>
+      <c r="K60">
+        <v>-0.324981585223659</v>
+      </c>
+      <c r="L60">
+        <v>-0.260318950401566</v>
+      </c>
+      <c r="M60">
+        <v>-0.58396188963874496</v>
+      </c>
+      <c r="N60">
+        <v>0.52937673680031705</v>
+      </c>
+      <c r="O60">
+        <v>78.244369087016196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61">
+        <v>-0.54900000000000004</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>-0.5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>4.7017728662123601E-17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F62">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="I62">
+        <v>-0.26470588235294101</v>
+      </c>
+      <c r="J62">
+        <v>0.74509803921568596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1.28</v>
+      </c>
+      <c r="E63">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="F63">
+        <v>-0.35599999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>-0.57099999999999995</v>
+      </c>
+      <c r="I63">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="D64">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0.52725968436154902</v>
+      </c>
+      <c r="J64">
+        <v>0.77474892395982697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D65">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H65">
+        <v>-0.01</v>
+      </c>
+      <c r="I65">
+        <v>0.24988043998087001</v>
+      </c>
+      <c r="J65">
+        <v>0.55284552845528401</v>
+      </c>
+      <c r="K65">
+        <v>0.17530686583018201</v>
+      </c>
+      <c r="L65">
+        <v>4.14235601727534E-2</v>
+      </c>
+      <c r="M65">
+        <v>0.24988043998087001</v>
+      </c>
+      <c r="N65">
+        <v>0.55284552845528401</v>
+      </c>
+      <c r="O65">
+        <v>81.279172009584599</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>0.52</v>
+      </c>
+      <c r="D66">
+        <v>0.05</v>
+      </c>
+      <c r="E66">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F66">
+        <v>-0.16700000000000001</v>
+      </c>
+      <c r="G66">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I66">
+        <v>-0.33931133428981303</v>
+      </c>
+      <c r="J66">
+        <v>0.38737446197991299</v>
+      </c>
+      <c r="K66">
+        <v>-0.26773282965649498</v>
+      </c>
+      <c r="L66">
+        <v>-0.24566565136017099</v>
+      </c>
+      <c r="M66">
+        <v>-0.33931133428981303</v>
+      </c>
+      <c r="N66">
+        <v>0.38737446197991299</v>
+      </c>
+      <c r="O66">
+        <v>81.279172009584599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67">
+        <v>-0.40699999999999997</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>-0.5</v>
+      </c>
+      <c r="J67" s="2">
+        <v>3.81791074490248E-17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F68">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="I68">
+        <v>-0.37342022605297598</v>
+      </c>
+      <c r="J68">
+        <v>1.11483194420399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="E69">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="F69">
+        <v>-0.34300000000000003</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>-0.52600000000000002</v>
+      </c>
+      <c r="I69">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="2">
+        <v>-3.81791074490248E-17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="D70">
+        <v>1.038</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0.827059580046001</v>
+      </c>
+      <c r="J70">
+        <v>1.44090223332426</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>0.83</v>
+      </c>
+      <c r="D71">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="E71">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="F71">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G71">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H71">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="I71">
+        <v>1.0946875077288301</v>
+      </c>
+      <c r="J71">
+        <v>0.92577844829718203</v>
+      </c>
+      <c r="K71">
+        <v>0.49194948699413099</v>
+      </c>
+      <c r="L71">
+        <v>0.270660764458859</v>
+      </c>
+      <c r="M71">
+        <v>1.0946875077288301</v>
+      </c>
+      <c r="N71">
+        <v>0.92577844829718203</v>
+      </c>
+      <c r="O71">
+        <v>80.721914709549793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D60">
+      <c r="D72">
         <v>0.44</v>
       </c>
-      <c r="E60">
-        <v>0.30866306162304308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+      <c r="E72">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="F72">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G72">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="H72">
+        <v>-0.11899999999999999</v>
+      </c>
+      <c r="I72">
+        <v>3.1496549847896203E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.332500680137511</v>
+      </c>
+      <c r="K72">
+        <v>-9.8512830846967103E-2</v>
+      </c>
+      <c r="L72">
+        <v>0.13743758727597899</v>
+      </c>
+      <c r="M72">
+        <v>3.1496549847896203E-2</v>
+      </c>
+      <c r="N72">
+        <v>0.332500680137511</v>
+      </c>
+      <c r="O72">
+        <v>80.721914709549793</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
         <v>12</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73">
+        <v>-0.59499999999999997</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>-0.5</v>
+      </c>
+      <c r="J73" s="2">
+        <v>4.5514797911348103E-17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
         <v>42</v>
       </c>
-      <c r="C61">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F74">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="I74">
+        <v>-0.199173989455184</v>
+      </c>
+      <c r="J74">
+        <v>0.61896309314586995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B75" t="s">
         <v>8</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
         <v>1.4530000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+      <c r="E75">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F75">
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>-0.78900000000000003</v>
+      </c>
+      <c r="I75">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J75" s="2">
+        <v>4.5514797911348103E-17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
         <v>12</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B76" t="s">
         <v>9</v>
       </c>
-      <c r="C63">
+      <c r="C76">
         <v>1.327</v>
       </c>
-      <c r="D63">
+      <c r="D76">
         <v>0.51600000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0.25358523725834797</v>
+      </c>
+      <c r="J76">
+        <v>0.82166959578207299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C64">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D64">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="E64">
-        <v>0.76968265974819206</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+      <c r="C77">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D77">
+        <v>1.048</v>
+      </c>
+      <c r="E77">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F77">
+        <v>0.377</v>
+      </c>
+      <c r="G77">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H77">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="I77">
+        <v>0.39049209138840002</v>
+      </c>
+      <c r="J77">
+        <v>0.34768014059753899</v>
+      </c>
+      <c r="K77">
+        <v>0.17505840473797701</v>
+      </c>
+      <c r="L77">
+        <v>0.454750100039441</v>
+      </c>
+      <c r="M77">
+        <v>0.39049209138840002</v>
+      </c>
+      <c r="N77">
+        <v>0.34768014059753899</v>
+      </c>
+      <c r="O77">
+        <v>88.992598135980302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B78" t="s">
         <v>11</v>
       </c>
-      <c r="C65">
+      <c r="C78">
         <v>0.20699999999999999</v>
       </c>
-      <c r="D65">
+      <c r="D78">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E65">
-        <v>0.17878931406717269</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="E78">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F78">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G78">
+        <v>-0.41599999999999998</v>
+      </c>
+      <c r="H78">
+        <v>-0.03</v>
+      </c>
+      <c r="I78">
+        <v>-0.34474516695957802</v>
+      </c>
+      <c r="J78">
+        <v>0.12808435852372599</v>
+      </c>
+      <c r="K78">
+        <v>-0.41583494094304202</v>
+      </c>
+      <c r="L78">
+        <v>2.10865541002501E-2</v>
+      </c>
+      <c r="M78">
+        <v>-0.34474516695957802</v>
+      </c>
+      <c r="N78">
+        <v>0.12808435852372599</v>
+      </c>
+      <c r="O78">
+        <v>88.992598135980302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79">
+        <v>-0.45400000000000001</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>-0.5</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1.54329882334353E-16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
         <v>42</v>
       </c>
-      <c r="C66">
+      <c r="C80">
         <v>1</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="F80">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="I80">
+        <v>-0.54950495049504999</v>
+      </c>
+      <c r="J80">
+        <v>0.933521923620933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="E81">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="F81">
+        <v>-0.40899999999999997</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>-0.57199999999999995</v>
+      </c>
+      <c r="I81">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1.15747411750764E-16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="C68">
+      <c r="C82">
         <v>1.26</v>
       </c>
-      <c r="D68">
+      <c r="D82">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0.38189533239037998</v>
+      </c>
+      <c r="J82">
+        <v>1.1760961810466699</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="C69">
+      <c r="C83">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D69">
+      <c r="D83">
         <v>0.95599999999999996</v>
       </c>
-      <c r="E69">
-        <v>0.60129038290710202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="E83">
+        <v>0.625</v>
+      </c>
+      <c r="F83">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G83">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="H83">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="I83">
+        <v>0.37022630834511999</v>
+      </c>
+      <c r="J83">
+        <v>0.45226308345120197</v>
+      </c>
+      <c r="K83">
+        <v>0.147593044205344</v>
+      </c>
+      <c r="L83">
+        <v>0.28856040863504701</v>
+      </c>
+      <c r="M83">
+        <v>0.37022630834511999</v>
+      </c>
+      <c r="N83">
+        <v>0.45226308345120197</v>
+      </c>
+      <c r="O83">
+        <v>85.211679716791195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
         <v>11</v>
       </c>
-      <c r="C70">
+      <c r="C84">
         <v>0.503</v>
       </c>
-      <c r="D70">
+      <c r="D84">
         <v>-0.33600000000000002</v>
       </c>
-      <c r="E70">
-        <v>0.117326663238113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
+      <c r="E84">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F84">
+        <v>-0.377</v>
+      </c>
+      <c r="G84">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="H84">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="I84">
+        <v>-0.83875530410183896</v>
+      </c>
+      <c r="J84">
+        <v>0.46958981612446898</v>
+      </c>
+      <c r="K84">
+        <v>-0.33637067546364402</v>
+      </c>
+      <c r="L84">
+        <v>-0.36276077120927802</v>
+      </c>
+      <c r="M84">
+        <v>-0.83875530410183896</v>
+      </c>
+      <c r="N84">
+        <v>0.46958981612446898</v>
+      </c>
+      <c r="O84">
+        <v>85.211679716791195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
         <v>41</v>
       </c>
-      <c r="B71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+      <c r="B85" t="s">
+        <v>57</v>
+      </c>
+      <c r="G85">
+        <v>-0.54600000000000004</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>-0.499999999999999</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4.03535236162642E-17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
         <v>41</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="D73">
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74">
-        <v>0.182</v>
-      </c>
-      <c r="D74">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E74">
-        <v>0.45635632539437049</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="D75">
-        <v>-0.20499999999999999</v>
-      </c>
-      <c r="E75">
-        <v>0.12469842251778571</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0.69299999999999995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="D78">
-        <v>0.70699999999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="D79">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="E79">
-        <v>0.66567679558011028</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80">
-        <v>0.62</v>
-      </c>
-      <c r="D80">
-        <v>-0.26</v>
-      </c>
-      <c r="E80">
-        <v>0.25959944751381242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0.66800000000000004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="D83">
-        <v>0.504</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="D84">
-        <v>0.73</v>
-      </c>
-      <c r="E84">
-        <v>0.65955801104972356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="D85">
-        <v>0.02</v>
-      </c>
-      <c r="E85">
-        <v>6.2430939226519502E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>53</v>
       </c>
       <c r="B86" t="s">
         <v>42</v>
@@ -6472,10 +8184,28 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="E86">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F86">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I86">
+        <v>0.18648633713701601</v>
+      </c>
+      <c r="J86">
+        <v>1.39178846738319</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -6484,55 +8214,784 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="E87">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="F87">
+        <v>-0.46100000000000002</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>-0.38900000000000001</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+      <c r="J87" s="2">
+        <v>6.05302854243963E-17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88">
-        <v>1.17</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="D88">
-        <v>0.55900000000000005</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>1.10865360705108</v>
+      </c>
+      <c r="J88">
+        <v>0.99262288287790401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89">
-        <v>0.29699999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="D89">
-        <v>0.35599999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="E89">
-        <v>0.34680899386781738</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F89">
+        <v>-0.126</v>
+      </c>
+      <c r="G89">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="H89">
+        <v>-0.17299999999999999</v>
+      </c>
+      <c r="I89">
+        <v>0.35668499433592099</v>
+      </c>
+      <c r="J89">
+        <v>0.25435857762550701</v>
+      </c>
+      <c r="K89">
+        <v>-8.9420306312312306E-2</v>
+      </c>
+      <c r="L89">
+        <v>0.19324133933461499</v>
+      </c>
+      <c r="M89">
+        <v>0.35668499433592099</v>
+      </c>
+      <c r="N89">
+        <v>0.25435857762550701</v>
+      </c>
+      <c r="O89">
+        <v>71.017795440516196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D90">
+        <v>-0.20499999999999999</v>
+      </c>
+      <c r="E90">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F90">
+        <v>-0.27200000000000002</v>
+      </c>
+      <c r="G90">
+        <v>-0.50900000000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.36</v>
+      </c>
+      <c r="I90">
+        <v>-0.55409885889536503</v>
+      </c>
+      <c r="J90">
+        <v>0.53654021495869297</v>
+      </c>
+      <c r="K90">
+        <v>-0.42107820918889699</v>
+      </c>
+      <c r="L90">
+        <v>-0.14000602036999699</v>
+      </c>
+      <c r="M90">
+        <v>-0.55409885889536503</v>
+      </c>
+      <c r="N90">
+        <v>0.53654021495869297</v>
+      </c>
+      <c r="O90">
+        <v>71.017795440516196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G91">
+        <v>-0.497</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>-0.5</v>
+      </c>
+      <c r="J91" s="2">
+        <v>-6.6111532579187003E-17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0.497</v>
+      </c>
+      <c r="F92">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="I92">
+        <v>-0.13796967699406601</v>
+      </c>
+      <c r="J92">
+        <v>1.39611074489123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="E93">
+        <v>0.497</v>
+      </c>
+      <c r="F93">
+        <v>-0.39800000000000002</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="I93">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J93" s="2">
+        <v>-6.6111532579187003E-17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D94">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0.503</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0.87903757415952599</v>
+      </c>
+      <c r="J94">
+        <v>1.3843111404087001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="D95">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="E95">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="F95">
+        <v>-0.1</v>
+      </c>
+      <c r="G95">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H95">
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="I95">
+        <v>0.55346077785102199</v>
+      </c>
+      <c r="J95">
+        <v>0.78655240606459997</v>
+      </c>
+      <c r="K95">
+        <v>0.16856384843899599</v>
+      </c>
+      <c r="L95">
+        <v>4.1320220794233302E-2</v>
+      </c>
+      <c r="M95">
+        <v>0.55346077785102199</v>
+      </c>
+      <c r="N95">
+        <v>0.78655240606459997</v>
+      </c>
+      <c r="O95">
+        <v>69.449260654804505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>0.62</v>
+      </c>
+      <c r="D96">
+        <v>-0.26</v>
+      </c>
+      <c r="E96">
+        <v>0.122</v>
+      </c>
+      <c r="F96">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="G96">
+        <v>-0.375</v>
+      </c>
+      <c r="H96">
+        <v>0.5</v>
+      </c>
+      <c r="I96">
+        <v>-0.65088991430454701</v>
+      </c>
+      <c r="J96">
+        <v>0.86631509558338804</v>
+      </c>
+      <c r="K96">
+        <v>-0.23751349962730101</v>
+      </c>
+      <c r="L96">
+        <v>-0.332044820822889</v>
+      </c>
+      <c r="M96">
+        <v>-0.65088991430454701</v>
+      </c>
+      <c r="N96">
+        <v>0.86631509558338804</v>
+      </c>
+      <c r="O96">
+        <v>69.449260654804505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97">
+        <v>-0.63800000000000001</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>-0.5</v>
+      </c>
+      <c r="J97" s="2">
+        <v>-2.9959177087336002E-16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F98">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I98">
+        <v>-0.41562165377751198</v>
+      </c>
+      <c r="J98">
+        <v>1.4950148720999401</v>
+      </c>
+      <c r="P98" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D90">
+      <c r="E99">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="F99">
+        <v>-0.57499999999999996</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>-0.51800000000000002</v>
+      </c>
+      <c r="I99">
+        <v>0.499999999999999</v>
+      </c>
+      <c r="J99" s="2">
+        <v>-3.3704074223253101E-16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D100">
+        <v>0.504</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0.32331945270672202</v>
+      </c>
+      <c r="J100">
+        <v>1.2147531231409801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D101">
+        <v>0.73</v>
+      </c>
+      <c r="E101">
+        <v>0.874</v>
+      </c>
+      <c r="F101">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G101">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H101">
+        <v>-0.433</v>
+      </c>
+      <c r="I101">
+        <v>0.61590719809637096</v>
+      </c>
+      <c r="J101">
+        <v>0.41292088042831598</v>
+      </c>
+      <c r="K101">
+        <v>2.1515967787816202E-2</v>
+      </c>
+      <c r="L101">
+        <v>0.35210471280968297</v>
+      </c>
+      <c r="M101">
+        <v>0.61590719809637096</v>
+      </c>
+      <c r="N101">
+        <v>0.41292088042831598</v>
+      </c>
+      <c r="O101">
+        <v>65.613500187168199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.02</v>
+      </c>
+      <c r="E102">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F102">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="G102">
+        <v>-0.58199999999999996</v>
+      </c>
+      <c r="H102">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I102">
+        <v>-0.46537775133848902</v>
+      </c>
+      <c r="J102">
+        <v>8.7209994051160006E-2</v>
+      </c>
+      <c r="K102">
+        <v>-0.57561110403538795</v>
+      </c>
+      <c r="L102">
+        <v>0.18840978941949599</v>
+      </c>
+      <c r="M102">
+        <v>-0.46537775133848902</v>
+      </c>
+      <c r="N102">
+        <v>8.7209994051160006E-2</v>
+      </c>
+      <c r="O102">
+        <v>65.613500187168199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="G103">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>-0.5</v>
+      </c>
+      <c r="J103" s="2">
+        <v>-3.2313144167031702E-17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F104">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="I104">
+        <v>-0.18478647335361201</v>
+      </c>
+      <c r="J104">
+        <v>1.0406905542606499</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0.92</v>
+      </c>
+      <c r="E105">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F105">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>-0.65900000000000003</v>
+      </c>
+      <c r="I105">
+        <v>0.5</v>
+      </c>
+      <c r="J105" s="2">
+        <v>3.2313144167031702E-17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>1.17</v>
+      </c>
+      <c r="D106">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0.437</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0.47534863508869002</v>
+      </c>
+      <c r="J106">
+        <v>1.2181487773080999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D107">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="E107">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F107">
+        <v>0.122</v>
+      </c>
+      <c r="G107">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="H107">
+        <v>-0.154</v>
+      </c>
+      <c r="I107">
+        <v>-1.96736854580646E-2</v>
+      </c>
+      <c r="J107">
+        <v>0.30871488958242699</v>
+      </c>
+      <c r="K107">
+        <v>-0.21596739528811401</v>
+      </c>
+      <c r="L107">
+        <v>0.222429271135408</v>
+      </c>
+      <c r="M107">
+        <v>-1.96736854580646E-2</v>
+      </c>
+      <c r="N107">
+        <v>0.30871488958242699</v>
+      </c>
+      <c r="O107">
+        <v>72.028974475704103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D108">
         <v>-0.46100000000000002</v>
       </c>
-      <c r="E90">
-        <v>0.23109243697478979</v>
+      <c r="E108">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F108">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="G108">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="H108">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="I108">
+        <v>-0.79154979654722801</v>
+      </c>
+      <c r="J108">
+        <v>0.69541342393236705</v>
+      </c>
+      <c r="K108">
+        <v>-0.331683952181141</v>
+      </c>
+      <c r="L108">
+        <v>-0.37745618132736403</v>
+      </c>
+      <c r="M108">
+        <v>-0.79154979654722801</v>
+      </c>
+      <c r="N108">
+        <v>0.69541342393236705</v>
+      </c>
+      <c r="O108">
+        <v>72.028974475704103</v>
       </c>
     </row>
   </sheetData>
